--- a/Russia.xlsx
+++ b/Russia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Energy_Use</t>
+  </si>
+  <si>
+    <t>Foreign Direct Investment</t>
   </si>
   <si>
     <t>1995</t>
@@ -470,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,10 +501,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>-4.14352840564905</v>
@@ -521,10 +527,13 @@
       <c r="G2">
         <v>4290.69346739168</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0.522256838168622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>-3.75506943900625</v>
@@ -544,10 +553,13 @@
       <c r="G3">
         <v>4252.61161860894</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0.658454456416548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1.39991580461016</v>
@@ -567,10 +579,13 @@
       <c r="G4">
         <v>4069.68729231577</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>1.20135889262562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>-5.29996162531226</v>
@@ -590,10 +605,13 @@
       <c r="G5">
         <v>3981.4994684392</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>1.0191194251039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>6.39991468973531</v>
@@ -613,10 +631,13 @@
       <c r="G6">
         <v>4136.75114378464</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>1.6622825455164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>10.000066815788</v>
@@ -636,10 +657,13 @@
       <c r="G7">
         <v>4224.27719789841</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>1.03116111575235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>5.10005122527505</v>
@@ -659,10 +683,13 @@
       <c r="G8">
         <v>4288.38263138853</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0.928663004211825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>4.69999190873524</v>
@@ -682,10 +709,13 @@
       <c r="G9">
         <v>4288.19385137335</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>1.00553594478556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>7.29995234453868</v>
@@ -705,10 +735,13 @@
       <c r="G10">
         <v>4461.30531990288</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>1.84237738388135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>7.19994786994475</v>
@@ -728,10 +761,13 @@
       <c r="G11">
         <v>4493.68721494055</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>2.60618528059526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>6.39996544785382</v>
@@ -751,10 +787,13 @@
       <c r="G12">
         <v>4540.90815577671</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>2.02980402372802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>8.200068255055999</v>
@@ -774,10 +813,13 @@
       <c r="G13">
         <v>4688.39102332011</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>3.79771796044009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>8.49997776846357</v>
@@ -797,10 +839,13 @@
       <c r="G14">
         <v>4709.84488692751</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>4.29894838602817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>5.19996926498843</v>
@@ -820,10 +865,13 @@
       <c r="G15">
         <v>4823.12599470293</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>4.50269877799769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>-7.79999391343111</v>
@@ -843,10 +891,13 @@
       <c r="G16">
         <v>4531.28646273085</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>2.99212947973039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>4.50000000003065</v>
@@ -866,10 +917,13 @@
       <c r="G17">
         <v>4819.04078214698</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>2.83082730005737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>4.3000291857941</v>
@@ -889,10 +943,13 @@
       <c r="G18">
         <v>5049.42663067025</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>2.69235742380976</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>4.02408615720979</v>
@@ -912,10 +969,13 @@
       <c r="G19">
         <v>5167.01035317865</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>2.29079639619755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1.75542214909368</v>
@@ -935,10 +995,13 @@
       <c r="G20">
         <v>5078.62634152433</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>3.01939794071852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>0.736267221415574</v>
@@ -958,10 +1021,13 @@
       <c r="G21">
         <v>4942.87548308675</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>1.069876215093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>-1.97271922637542</v>
@@ -981,10 +1047,13 @@
       <c r="G22">
         <v>4000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0.502608373795545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0.193690071729534</v>
@@ -1004,10 +1073,13 @@
       <c r="G23">
         <v>4000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>2.54849873389468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>1.82579006355112</v>
@@ -1027,10 +1099,13 @@
       <c r="G24">
         <v>4000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>1.8140929436605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>2.80724541049418</v>
@@ -1050,10 +1125,13 @@
       <c r="G25">
         <v>4000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0.530060761129424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>2.03298273919678</v>
@@ -1073,10 +1151,13 @@
       <c r="G26">
         <v>4000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>1.89485898487827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>-2.95127389914892</v>
@@ -1095,6 +1176,9 @@
       </c>
       <c r="G27">
         <v>4000</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
